--- a/Estandar.xlsx
+++ b/Estandar.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="15">
   <si>
     <t>id</t>
   </si>
@@ -59,6 +59,9 @@
   </si>
   <si>
     <t>servicio2()</t>
+  </si>
+  <si>
+    <t>servicio3()</t>
   </si>
 </sst>
 </file>
@@ -72,6 +75,7 @@
   <fonts count="5">
     <font>
       <name val="Arial"/>
+      <charset val="1"/>
       <family val="2"/>
       <sz val="10"/>
     </font>
@@ -92,6 +96,7 @@
     </font>
     <font>
       <name val="Arial"/>
+      <charset val="1"/>
       <family val="2"/>
       <sz val="10"/>
       <u val="single"/>
@@ -160,18 +165,18 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:D9"/>
+  <dimension ref="A1:D10"/>
   <sheetViews>
     <sheetView colorId="64" defaultGridColor="true" rightToLeft="false" showFormulas="false" showGridLines="true" showOutlineSymbols="true" showRowColHeaders="true" showZeros="true" tabSelected="true" topLeftCell="A1" view="normal" windowProtection="false" workbookViewId="0" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100">
-      <selection activeCell="C2" activeCellId="0" pane="topLeft" sqref="C2"/>
+      <selection activeCell="B11" activeCellId="0" pane="topLeft" sqref="B11"/>
     </sheetView>
   </sheetViews>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="3.57254901960784"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="13.9176470588235"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="13.6313725490196"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="13.2039215686275"/>
-    <col collapsed="false" hidden="false" max="1025" min="5" style="0" width="11.5764705882353"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="6.8"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="16.2980392156863"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="17.4274509803922"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="18.1411764705882"/>
+    <col collapsed="false" hidden="false" max="1025" min="5" style="0" width="11.6313725490196"/>
   </cols>
   <sheetData>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="1">
@@ -256,6 +261,14 @@
       </c>
       <c r="B9" s="0" t="s">
         <v>13</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="10">
+      <c r="A10" s="0" t="n">
+        <v>33</v>
+      </c>
+      <c r="B10" s="0" t="s">
+        <v>14</v>
       </c>
     </row>
   </sheetData>
@@ -276,17 +289,17 @@
   </sheetPr>
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView colorId="64" defaultGridColor="true" rightToLeft="false" showFormulas="false" showGridLines="true" showOutlineSymbols="true" showRowColHeaders="true" showZeros="true" tabSelected="false" topLeftCell="A1" view="normal" windowProtection="false" workbookViewId="0" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="60">
+    <sheetView colorId="64" defaultGridColor="true" rightToLeft="false" showFormulas="false" showGridLines="true" showOutlineSymbols="true" showRowColHeaders="true" showZeros="true" tabSelected="false" topLeftCell="A1" view="normal" windowProtection="false" workbookViewId="0" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100">
       <selection activeCell="A1" activeCellId="0" pane="topLeft" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <cols>
-    <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="11.5764705882353"/>
+    <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="11.6313725490196"/>
   </cols>
   <sheetData/>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
-  <pageSetup blackAndWhite="false" cellComments="none" copies="1" draft="false" firstPageNumber="1" fitToHeight="1" fitToWidth="1" horizontalDpi="300" orientation="portrait" pageOrder="downThenOver" paperSize="1" scale="100" useFirstPageNumber="false" usePrinterDefaults="false" verticalDpi="300"/>
+  <pageSetup blackAndWhite="false" cellComments="none" copies="1" draft="false" firstPageNumber="0" fitToHeight="1" fitToWidth="1" horizontalDpi="300" orientation="portrait" pageOrder="downThenOver" paperSize="1" scale="100" useFirstPageNumber="false" usePrinterDefaults="false" verticalDpi="300"/>
   <headerFooter differentFirst="false" differentOddEven="false">
     <oddHeader>&amp;C&amp;"Times New Roman,Predeterminado"&amp;12&amp;A</oddHeader>
     <oddFooter>&amp;C&amp;"Times New Roman,Predeterminado"&amp;12Página &amp;P</oddFooter>
@@ -301,17 +314,17 @@
   </sheetPr>
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView colorId="64" defaultGridColor="true" rightToLeft="false" showFormulas="false" showGridLines="true" showOutlineSymbols="true" showRowColHeaders="true" showZeros="true" tabSelected="false" topLeftCell="A1" view="normal" windowProtection="false" workbookViewId="0" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="60">
+    <sheetView colorId="64" defaultGridColor="true" rightToLeft="false" showFormulas="false" showGridLines="true" showOutlineSymbols="true" showRowColHeaders="true" showZeros="true" tabSelected="false" topLeftCell="A1" view="normal" windowProtection="false" workbookViewId="0" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100">
       <selection activeCell="A1" activeCellId="0" pane="topLeft" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <cols>
-    <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="11.5764705882353"/>
+    <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="11.6313725490196"/>
   </cols>
   <sheetData/>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
-  <pageSetup blackAndWhite="false" cellComments="none" copies="1" draft="false" firstPageNumber="1" fitToHeight="1" fitToWidth="1" horizontalDpi="300" orientation="portrait" pageOrder="downThenOver" paperSize="1" scale="100" useFirstPageNumber="false" usePrinterDefaults="false" verticalDpi="300"/>
+  <pageSetup blackAndWhite="false" cellComments="none" copies="1" draft="false" firstPageNumber="0" fitToHeight="1" fitToWidth="1" horizontalDpi="300" orientation="portrait" pageOrder="downThenOver" paperSize="1" scale="100" useFirstPageNumber="false" usePrinterDefaults="false" verticalDpi="300"/>
   <headerFooter differentFirst="false" differentOddEven="false">
     <oddHeader>&amp;C&amp;"Times New Roman,Predeterminado"&amp;12&amp;A</oddHeader>
     <oddFooter>&amp;C&amp;"Times New Roman,Predeterminado"&amp;12Página &amp;P</oddFooter>
